--- a/MAIN_IMPROVE/model_perf.xlsx
+++ b/MAIN_IMPROVE/model_perf.xlsx
@@ -43,29 +43,29 @@
     <t>Cal</t>
   </si>
   <si>
-    <t>FM_XGBOOST</t>
-  </si>
-  <si>
-    <t>FM_XGBOOST_ALS</t>
-  </si>
-  <si>
-    <t>FM_XGBOOST_NN</t>
-  </si>
-  <si>
-    <t>FM_XGBOOST_SGDA</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
     <t>Performance</t>
+  </si>
+  <si>
+    <t>XGBOOST_ALS</t>
+  </si>
+  <si>
+    <t>XGBOOST_NN</t>
+  </si>
+  <si>
+    <t>XGBOOST_SGDA</t>
+  </si>
+  <si>
+    <t>XGBOOST_MCMC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -262,6 +269,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +580,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="10">
@@ -625,9 +636,11 @@
         <v>0.39790550000000002</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.39367839999999998</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
@@ -639,9 +652,11 @@
         <v>0.3999703</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.3987851</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
@@ -653,21 +668,27 @@
         <v>0.44173899999999999</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.39385690000000001</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8"/>
+      <c r="B6" s="13">
+        <v>0.4269348</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.4028487</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="5"/>
     </row>
